--- a/GRANTS/07-13-2020.xlsx
+++ b/GRANTS/07-13-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKbenyahia\ExcelFiles\GRANTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137AB12-E4C5-45F7-AB6E-5C66D61F778A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A93DB77-BB50-4922-83AD-8F532A569B7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B9393C2-8EA1-4DC1-B5BA-A38F96EDA4E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4B9393C2-8EA1-4DC1-B5BA-A38F96EDA4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="DOS" sheetId="1" r:id="rId1"/>
@@ -1613,9 +1613,6 @@
     <t>https://www.grants.gov/custom/viewOppDetails.jsp?oppId=328018</t>
   </si>
   <si>
-    <t>https://www.grants.gov/custom/viewOppDetails.jsp?oppId=328004</t>
-  </si>
-  <si>
     <t>https://www.grants.gov/custom/viewOppDetails.jsp?oppId=328001</t>
   </si>
   <si>
@@ -2103,6 +2100,9 @@
   </si>
   <si>
     <t>https://www.grants.gov/custom/viewOppDetails.jsp?oppId=236513</t>
+  </si>
+  <si>
+    <t>https://www.grants.gov/custom/viewOppDetails.jsp?oppId=32800</t>
   </si>
 </sst>
 </file>
@@ -2394,6 +2394,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2411,9 +2414,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3340,34 +3340,34 @@
   </sheetPr>
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -3377,16 +3377,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="10"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -3394,12 +3394,12 @@
       <c r="J2" s="14"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="10"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3407,7 +3407,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
         <v>6</v>
@@ -3422,7 +3422,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7" t="s">
         <v>76</v>
       </c>
@@ -3466,13 +3466,13 @@
       <c r="H6" s="18">
         <v>44058</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="24" t="s">
         <v>504</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
@@ -3491,13 +3491,13 @@
       <c r="H7" s="18">
         <v>44053</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="24" t="s">
         <v>505</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="C8" s="7" t="s">
         <v>83</v>
@@ -3517,13 +3517,13 @@
       <c r="H8" s="18">
         <v>44053</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="24" t="s">
         <v>506</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
         <v>85</v>
       </c>
@@ -3542,13 +3542,13 @@
       <c r="H9" s="18">
         <v>44064</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="24" t="s">
         <v>507</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
@@ -3567,13 +3567,13 @@
       <c r="H10" s="18">
         <v>44050</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="24" t="s">
         <v>508</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>91</v>
       </c>
@@ -3592,13 +3592,13 @@
       <c r="H11" s="18">
         <v>44050</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="24" t="s">
         <v>509</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
@@ -3617,13 +3617,13 @@
       <c r="H12" s="18">
         <v>44051</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="24" t="s">
         <v>510</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="7" t="s">
         <v>97</v>
       </c>
@@ -3642,13 +3642,13 @@
       <c r="H13" s="18">
         <v>44052</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="24" t="s">
         <v>511</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="C14" s="7" t="s">
         <v>100</v>
@@ -3668,13 +3668,13 @@
       <c r="H14" s="18">
         <v>44074</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="24" t="s">
         <v>512</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>103</v>
       </c>
@@ -3693,13 +3693,13 @@
       <c r="H15" s="18">
         <v>72686</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="24" t="s">
         <v>513</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>106</v>
       </c>
@@ -3718,13 +3718,13 @@
       <c r="H16" s="18">
         <v>44036</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="24" t="s">
         <v>514</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="7" t="s">
         <v>109</v>
       </c>
@@ -3743,13 +3743,13 @@
       <c r="H17" s="18">
         <v>44060</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="24" t="s">
         <v>515</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="7" t="s">
         <v>112</v>
       </c>
@@ -3768,13 +3768,13 @@
       <c r="H18" s="18">
         <v>44033</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="24" t="s">
         <v>516</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="7" t="s">
         <v>115</v>
       </c>
@@ -3793,13 +3793,13 @@
       <c r="H19" s="18">
         <v>44050</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>517</v>
+      <c r="I19" s="24" t="s">
+        <v>680</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="C20" s="7" t="s">
         <v>118</v>
@@ -3820,12 +3820,12 @@
         <v>44057</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="7" t="s">
         <v>120</v>
       </c>
@@ -3845,12 +3845,12 @@
         <v>44058</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="7" t="s">
         <v>123</v>
       </c>
@@ -3870,12 +3870,12 @@
         <v>44058</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="7" t="s">
         <v>125</v>
       </c>
@@ -3895,12 +3895,12 @@
         <v>44058</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>128</v>
       </c>
@@ -3920,12 +3920,12 @@
         <v>44058</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="7" t="s">
         <v>130</v>
       </c>
@@ -3945,12 +3945,12 @@
         <v>44058</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="C26" s="7" t="s">
         <v>132</v>
@@ -3971,12 +3971,12 @@
         <v>44058</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="7" t="s">
         <v>134</v>
       </c>
@@ -3996,12 +3996,12 @@
         <v>44060</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="7" t="s">
         <v>136</v>
       </c>
@@ -4021,12 +4021,12 @@
         <v>44058</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="7" t="s">
         <v>138</v>
       </c>
@@ -4046,12 +4046,12 @@
         <v>44058</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="7" t="s">
         <v>140</v>
       </c>
@@ -4071,12 +4071,12 @@
         <v>44058</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="7" t="s">
         <v>142</v>
       </c>
@@ -4096,12 +4096,12 @@
         <v>44286</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="C32" s="7" t="s">
         <v>145</v>
@@ -4122,12 +4122,12 @@
         <v>44060</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="7" t="s">
         <v>147</v>
       </c>
@@ -4147,12 +4147,12 @@
         <v>44043</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="7" t="s">
         <v>150</v>
       </c>
@@ -4172,12 +4172,12 @@
         <v>44057</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="7" t="s">
         <v>153</v>
       </c>
@@ -4197,12 +4197,12 @@
         <v>44074</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="7" t="s">
         <v>156</v>
       </c>
@@ -4222,12 +4222,12 @@
         <v>44042</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="7" t="s">
         <v>159</v>
       </c>
@@ -4247,12 +4247,12 @@
         <v>44064</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="C38" s="7" t="s">
         <v>162</v>
@@ -4273,12 +4273,12 @@
         <v>44053</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="7" t="s">
         <v>164</v>
       </c>
@@ -4298,12 +4298,12 @@
         <v>44060</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="7" t="s">
         <v>167</v>
       </c>
@@ -4323,12 +4323,12 @@
         <v>44060</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -4348,12 +4348,12 @@
         <v>44053</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="7" t="s">
         <v>171</v>
       </c>
@@ -4373,12 +4373,12 @@
         <v>44196</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="7" t="s">
         <v>173</v>
       </c>
@@ -4398,12 +4398,12 @@
         <v>44036</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="C44" s="7" t="s">
         <v>176</v>
@@ -4424,12 +4424,12 @@
         <v>44035</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="7" t="s">
         <v>179</v>
       </c>
@@ -4449,12 +4449,12 @@
         <v>44067</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="7" t="s">
         <v>181</v>
       </c>
@@ -4474,12 +4474,12 @@
         <v>44044</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="7" t="s">
         <v>184</v>
       </c>
@@ -4499,12 +4499,12 @@
         <v>44050</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="7" t="s">
         <v>187</v>
       </c>
@@ -4524,12 +4524,12 @@
         <v>44034</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="7" t="s">
         <v>190</v>
       </c>
@@ -4549,12 +4549,12 @@
         <v>44043</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="C50" s="7" t="s">
         <v>193</v>
@@ -4575,12 +4575,12 @@
         <v>44036</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="7" t="s">
         <v>196</v>
       </c>
@@ -4600,12 +4600,12 @@
         <v>44029</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C52" s="7" t="s">
         <v>199</v>
       </c>
@@ -4625,12 +4625,12 @@
         <v>44060</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="7" t="s">
         <v>202</v>
       </c>
@@ -4650,12 +4650,12 @@
         <v>44043</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="7" t="s">
         <v>205</v>
       </c>
@@ -4675,12 +4675,12 @@
         <v>44044</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C55" s="7" t="s">
         <v>207</v>
       </c>
@@ -4700,12 +4700,12 @@
         <v>44059</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="C56" s="7" t="s">
         <v>209</v>
@@ -4726,12 +4726,12 @@
         <v>44029</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="7" t="s">
         <v>212</v>
       </c>
@@ -4751,12 +4751,12 @@
         <v>44059</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="7" t="s">
         <v>215</v>
       </c>
@@ -4776,12 +4776,12 @@
         <v>44027</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" s="7" t="s">
         <v>217</v>
       </c>
@@ -4801,12 +4801,12 @@
         <v>44057</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" s="7" t="s">
         <v>219</v>
       </c>
@@ -4826,12 +4826,12 @@
         <v>44039</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C61" s="20" t="s">
         <v>222</v>
       </c>
@@ -4849,12 +4849,12 @@
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="C62" s="20" t="s">
         <v>225</v>
@@ -4875,12 +4875,12 @@
         <v>44043</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C63" s="20" t="s">
         <v>227</v>
       </c>
@@ -4900,12 +4900,12 @@
         <v>44408</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C64" s="20" t="s">
         <v>230</v>
       </c>
@@ -4925,12 +4925,12 @@
         <v>44027</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C65" s="20" t="s">
         <v>232</v>
       </c>
@@ -4950,12 +4950,12 @@
         <v>44053</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C66" s="20" t="s">
         <v>234</v>
       </c>
@@ -4975,12 +4975,12 @@
         <v>44046</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C67" s="20" t="s">
         <v>236</v>
       </c>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="C68" s="20" t="s">
         <v>239</v>
@@ -5024,12 +5024,12 @@
         <v>44053</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C69" s="20" t="s">
         <v>241</v>
       </c>
@@ -5049,12 +5049,12 @@
         <v>44027</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C70" s="20" t="s">
         <v>243</v>
       </c>
@@ -5074,12 +5074,12 @@
         <v>44046</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C71" s="20" t="s">
         <v>246</v>
       </c>
@@ -5099,12 +5099,12 @@
         <v>44047</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C72" s="20" t="s">
         <v>248</v>
       </c>
@@ -5124,12 +5124,12 @@
         <v>44031</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="C73" s="20" t="s">
         <v>251</v>
@@ -5150,12 +5150,12 @@
         <v>44046</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="20" t="s">
         <v>253</v>
       </c>
@@ -5175,12 +5175,12 @@
         <v>44031</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C75" s="20" t="s">
         <v>255</v>
       </c>
@@ -5200,12 +5200,12 @@
         <v>44032</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C76" s="20" t="s">
         <v>257</v>
       </c>
@@ -5225,12 +5225,12 @@
         <v>44046</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
     </row>
-    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C77" s="20" t="s">
         <v>259</v>
       </c>
@@ -5250,12 +5250,12 @@
         <v>44039</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
     </row>
-    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="C78" s="20" t="s">
         <v>261</v>
@@ -5276,12 +5276,12 @@
         <v>44043</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C79" s="20" t="s">
         <v>263</v>
       </c>
@@ -5301,12 +5301,12 @@
         <v>44036</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C80" s="20" t="s">
         <v>266</v>
       </c>
@@ -5326,10 +5326,10 @@
         <v>44043</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C81" s="20" t="s">
         <v>268</v>
       </c>
@@ -5349,10 +5349,10 @@
         <v>44043</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="20" t="s">
         <v>270</v>
       </c>
@@ -5372,10 +5372,10 @@
         <v>44043</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C83" s="20" t="s">
         <v>272</v>
       </c>
@@ -5395,10 +5395,10 @@
         <v>44025</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C84" s="20" t="s">
         <v>274</v>
       </c>
@@ -5418,10 +5418,10 @@
         <v>44025</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C85" s="20" t="s">
         <v>277</v>
       </c>
@@ -5441,10 +5441,10 @@
         <v>44027</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C86" s="20" t="s">
         <v>279</v>
       </c>
@@ -5464,10 +5464,10 @@
         <v>44040</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C87" s="20" t="s">
         <v>281</v>
       </c>
@@ -5487,10 +5487,10 @@
         <v>44036</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C88" s="20" t="s">
         <v>284</v>
       </c>
@@ -5508,10 +5508,10 @@
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C89" s="20" t="s">
         <v>287</v>
       </c>
@@ -5531,10 +5531,10 @@
         <v>44027</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C90" s="20" t="s">
         <v>289</v>
       </c>
@@ -5554,10 +5554,10 @@
         <v>44042</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C91" s="20" t="s">
         <v>292</v>
       </c>
@@ -5575,10 +5575,10 @@
       </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C92" s="20" t="s">
         <v>295</v>
       </c>
@@ -5596,10 +5596,10 @@
       </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C93" s="20" t="s">
         <v>297</v>
       </c>
@@ -5619,10 +5619,10 @@
         <v>44029</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C94" s="20" t="s">
         <v>299</v>
       </c>
@@ -5642,10 +5642,10 @@
         <v>44029</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C95" s="20" t="s">
         <v>301</v>
       </c>
@@ -5663,10 +5663,10 @@
       </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C96" s="20" t="s">
         <v>304</v>
       </c>
@@ -5686,10 +5686,10 @@
         <v>44029</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C97" s="20" t="s">
         <v>307</v>
       </c>
@@ -5709,10 +5709,10 @@
         <v>44029</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C98" s="20" t="s">
         <v>309</v>
       </c>
@@ -5732,10 +5732,10 @@
         <v>44029</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C99" s="20" t="s">
         <v>311</v>
       </c>
@@ -5755,10 +5755,10 @@
         <v>44043</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C100" s="20" t="s">
         <v>314</v>
       </c>
@@ -5778,10 +5778,10 @@
         <v>44029</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C101" s="20" t="s">
         <v>316</v>
       </c>
@@ -5801,10 +5801,10 @@
         <v>44043</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C102" s="20" t="s">
         <v>319</v>
       </c>
@@ -5824,10 +5824,10 @@
         <v>44074</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C103" s="20" t="s">
         <v>321</v>
       </c>
@@ -5847,10 +5847,10 @@
         <v>44026</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C104" s="20" t="s">
         <v>323</v>
       </c>
@@ -5870,10 +5870,10 @@
         <v>44078</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C105" s="20" t="s">
         <v>326</v>
       </c>
@@ -5893,10 +5893,10 @@
         <v>44025</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C106" s="20" t="s">
         <v>328</v>
       </c>
@@ -5916,10 +5916,10 @@
         <v>44025</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C107" s="20" t="s">
         <v>331</v>
       </c>
@@ -5939,10 +5939,10 @@
         <v>44043</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C108" s="20" t="s">
         <v>333</v>
       </c>
@@ -5962,10 +5962,10 @@
         <v>44058</v>
       </c>
       <c r="I108" s="21" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C109" s="20" t="s">
         <v>335</v>
       </c>
@@ -5985,10 +5985,10 @@
         <v>44078</v>
       </c>
       <c r="I109" s="21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C110" s="20" t="s">
         <v>337</v>
       </c>
@@ -6006,10 +6006,10 @@
       </c>
       <c r="H110" s="21"/>
       <c r="I110" s="21" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C111" s="20" t="s">
         <v>340</v>
       </c>
@@ -6029,10 +6029,10 @@
         <v>44027</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="112" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C112" s="20" t="s">
         <v>342</v>
       </c>
@@ -6052,10 +6052,10 @@
         <v>44058</v>
       </c>
       <c r="I112" s="21" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C113" s="20" t="s">
         <v>344</v>
       </c>
@@ -6075,10 +6075,10 @@
         <v>44042</v>
       </c>
       <c r="I113" s="21" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C114" s="20" t="s">
         <v>347</v>
       </c>
@@ -6098,10 +6098,10 @@
         <v>44027</v>
       </c>
       <c r="I114" s="21" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C115" s="20" t="s">
         <v>349</v>
       </c>
@@ -6121,10 +6121,10 @@
         <v>44043</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C116" s="20" t="s">
         <v>351</v>
       </c>
@@ -6144,10 +6144,10 @@
         <v>44074</v>
       </c>
       <c r="I116" s="21" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C117" s="20" t="s">
         <v>353</v>
       </c>
@@ -6167,10 +6167,10 @@
         <v>44073</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C118" s="20" t="s">
         <v>356</v>
       </c>
@@ -6190,10 +6190,10 @@
         <v>44044</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C119" s="20" t="s">
         <v>358</v>
       </c>
@@ -6213,10 +6213,10 @@
         <v>44092</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C120" s="20" t="s">
         <v>361</v>
       </c>
@@ -6236,10 +6236,10 @@
         <v>44092</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C121" s="20" t="s">
         <v>363</v>
       </c>
@@ -6259,10 +6259,10 @@
         <v>72686</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C122" s="20" t="s">
         <v>364</v>
       </c>
@@ -6282,10 +6282,10 @@
         <v>44044</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C123" s="20" t="s">
         <v>367</v>
       </c>
@@ -6305,10 +6305,10 @@
         <v>44196</v>
       </c>
       <c r="I123" s="21" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C124" s="20" t="s">
         <v>368</v>
       </c>
@@ -6328,10 +6328,10 @@
         <v>44074</v>
       </c>
       <c r="I124" s="21" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C125" s="20" t="s">
         <v>370</v>
       </c>
@@ -6351,10 +6351,10 @@
         <v>44043</v>
       </c>
       <c r="I125" s="21" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C126" s="20" t="s">
         <v>372</v>
       </c>
@@ -6374,10 +6374,10 @@
         <v>44104</v>
       </c>
       <c r="I126" s="21" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C127" s="20" t="s">
         <v>375</v>
       </c>
@@ -6397,10 +6397,10 @@
         <v>44048</v>
       </c>
       <c r="I127" s="21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C128" s="20" t="s">
         <v>377</v>
       </c>
@@ -6420,10 +6420,10 @@
         <v>44104</v>
       </c>
       <c r="I128" s="21" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C129" s="20" t="s">
         <v>379</v>
       </c>
@@ -6443,10 +6443,10 @@
         <v>44104</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="130" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C130" s="20" t="s">
         <v>381</v>
       </c>
@@ -6466,10 +6466,10 @@
         <v>44074</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="131" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C131" s="20" t="s">
         <v>383</v>
       </c>
@@ -6489,10 +6489,10 @@
         <v>44029</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="132" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C132" s="20" t="s">
         <v>386</v>
       </c>
@@ -6512,10 +6512,10 @@
         <v>44042</v>
       </c>
       <c r="I132" s="21" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="133" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C133" s="20" t="s">
         <v>389</v>
       </c>
@@ -6535,10 +6535,10 @@
         <v>44043</v>
       </c>
       <c r="I133" s="21" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="134" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C134" s="20" t="s">
         <v>391</v>
       </c>
@@ -6556,10 +6556,10 @@
       </c>
       <c r="H134" s="21"/>
       <c r="I134" s="21" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="135" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C135" s="20" t="s">
         <v>393</v>
       </c>
@@ -6577,10 +6577,10 @@
       </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C136" s="20" t="s">
         <v>395</v>
       </c>
@@ -6600,10 +6600,10 @@
         <v>44058</v>
       </c>
       <c r="I136" s="21" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C137" s="20" t="s">
         <v>397</v>
       </c>
@@ -6621,10 +6621,10 @@
       </c>
       <c r="H137" s="21"/>
       <c r="I137" s="21" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="138" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C138" s="20" t="s">
         <v>399</v>
       </c>
@@ -6644,10 +6644,10 @@
         <v>44196</v>
       </c>
       <c r="I138" s="21" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="139" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C139" s="20" t="s">
         <v>402</v>
       </c>
@@ -6667,10 +6667,10 @@
         <v>44089</v>
       </c>
       <c r="I139" s="21" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="140" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C140" s="20" t="s">
         <v>405</v>
       </c>
@@ -6690,10 +6690,10 @@
         <v>44089</v>
       </c>
       <c r="I140" s="21" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="141" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C141" s="20" t="s">
         <v>407</v>
       </c>
@@ -6713,10 +6713,10 @@
         <v>44120</v>
       </c>
       <c r="I141" s="21" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="142" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C142" s="20" t="s">
         <v>410</v>
       </c>
@@ -6736,10 +6736,10 @@
         <v>44044</v>
       </c>
       <c r="I142" s="21" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="143" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C143" s="20" t="s">
         <v>413</v>
       </c>
@@ -6757,10 +6757,10 @@
       </c>
       <c r="H143" s="21"/>
       <c r="I143" s="21" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="144" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C144" s="20" t="s">
         <v>416</v>
       </c>
@@ -6780,10 +6780,10 @@
         <v>44042</v>
       </c>
       <c r="I144" s="21" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C145" s="20" t="s">
         <v>418</v>
       </c>
@@ -6803,10 +6803,10 @@
         <v>44196</v>
       </c>
       <c r="I145" s="21" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="146" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C146" s="20" t="s">
         <v>421</v>
       </c>
@@ -6826,10 +6826,10 @@
         <v>44044</v>
       </c>
       <c r="I146" s="21" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="147" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C147" s="20" t="s">
         <v>423</v>
       </c>
@@ -6849,10 +6849,10 @@
         <v>44075</v>
       </c>
       <c r="I147" s="21" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="148" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C148" s="20" t="s">
         <v>426</v>
       </c>
@@ -6872,10 +6872,10 @@
         <v>44044</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="149" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C149" s="20" t="s">
         <v>428</v>
       </c>
@@ -6895,10 +6895,10 @@
         <v>44074</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="150" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C150" s="20" t="s">
         <v>431</v>
       </c>
@@ -6918,10 +6918,10 @@
         <v>44057</v>
       </c>
       <c r="I150" s="21" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="151" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C151" s="20" t="s">
         <v>433</v>
       </c>
@@ -6941,10 +6941,10 @@
         <v>44032</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="152" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C152" s="20" t="s">
         <v>436</v>
       </c>
@@ -6964,10 +6964,10 @@
         <v>44032</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="153" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C153" s="20" t="s">
         <v>438</v>
       </c>
@@ -6985,10 +6985,10 @@
       </c>
       <c r="H153" s="21"/>
       <c r="I153" s="21" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="154" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C154" s="20" t="s">
         <v>440</v>
       </c>
@@ -7006,10 +7006,10 @@
       </c>
       <c r="H154" s="21"/>
       <c r="I154" s="21" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="155" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C155" s="20" t="s">
         <v>441</v>
       </c>
@@ -7027,10 +7027,10 @@
       </c>
       <c r="H155" s="21"/>
       <c r="I155" s="21" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="156" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C156" s="20" t="s">
         <v>444</v>
       </c>
@@ -7050,10 +7050,10 @@
         <v>44043</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="157" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C157" s="20" t="s">
         <v>447</v>
       </c>
@@ -7071,10 +7071,10 @@
       </c>
       <c r="H157" s="21"/>
       <c r="I157" s="21" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="158" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C158" s="20" t="s">
         <v>450</v>
       </c>
@@ -7094,10 +7094,10 @@
         <v>44073</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="159" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C159" s="20" t="s">
         <v>452</v>
       </c>
@@ -7117,10 +7117,10 @@
         <v>44043</v>
       </c>
       <c r="I159" s="21" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="160" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C160" s="20" t="s">
         <v>455</v>
       </c>
@@ -7138,10 +7138,10 @@
       </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="161" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C161" s="20" t="s">
         <v>458</v>
       </c>
@@ -7159,10 +7159,10 @@
       </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C162" s="20" t="s">
         <v>460</v>
       </c>
@@ -7182,10 +7182,10 @@
         <v>44066</v>
       </c>
       <c r="I162" s="21" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="163" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C163" s="20" t="s">
         <v>462</v>
       </c>
@@ -7203,10 +7203,10 @@
       </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="164" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C164" s="20" t="s">
         <v>464</v>
       </c>
@@ -7226,10 +7226,10 @@
         <v>44104</v>
       </c>
       <c r="I164" s="21" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="165" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C165" s="20" t="s">
         <v>467</v>
       </c>
@@ -7249,10 +7249,10 @@
         <v>44074</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="166" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C166" s="20" t="s">
         <v>469</v>
       </c>
@@ -7272,10 +7272,10 @@
         <v>44058</v>
       </c>
       <c r="I166" s="21" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="167" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C167" s="20" t="s">
         <v>471</v>
       </c>
@@ -7295,10 +7295,10 @@
         <v>44075</v>
       </c>
       <c r="I167" s="21" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="168" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C168" s="20" t="s">
         <v>473</v>
       </c>
@@ -7318,10 +7318,10 @@
         <v>44043</v>
       </c>
       <c r="I168" s="21" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C169" s="20" t="s">
         <v>475</v>
       </c>
@@ -7341,10 +7341,10 @@
         <v>44089</v>
       </c>
       <c r="I169" s="21" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="170" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C170" s="20" t="s">
         <v>477</v>
       </c>
@@ -7364,10 +7364,10 @@
         <v>44043</v>
       </c>
       <c r="I170" s="21" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="171" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C171" s="20" t="s">
         <v>479</v>
       </c>
@@ -7387,10 +7387,10 @@
         <v>44227</v>
       </c>
       <c r="I171" s="21" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="172" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C172" s="20" t="s">
         <v>482</v>
       </c>
@@ -7408,10 +7408,10 @@
       </c>
       <c r="H172" s="21"/>
       <c r="I172" s="21" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="173" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C173" s="20" t="s">
         <v>484</v>
       </c>
@@ -7429,10 +7429,10 @@
       </c>
       <c r="H173" s="21"/>
       <c r="I173" s="21" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="174" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C174" s="20" t="s">
         <v>485</v>
       </c>
@@ -7450,10 +7450,10 @@
       </c>
       <c r="H174" s="21"/>
       <c r="I174" s="21" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="175" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C175" s="20" t="s">
         <v>487</v>
       </c>
@@ -7473,10 +7473,10 @@
         <v>44196</v>
       </c>
       <c r="I175" s="21" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="176" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C176" s="20" t="s">
         <v>490</v>
       </c>
@@ -7494,10 +7494,10 @@
       </c>
       <c r="H176" s="21"/>
       <c r="I176" s="21" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="177" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C177" s="20" t="s">
         <v>491</v>
       </c>
@@ -7515,10 +7515,10 @@
       </c>
       <c r="H177" s="21"/>
       <c r="I177" s="21" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="178" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="178" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C178" s="20" t="s">
         <v>493</v>
       </c>
@@ -7536,10 +7536,10 @@
       </c>
       <c r="H178" s="21"/>
       <c r="I178" s="21" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="179" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C179" s="20" t="s">
         <v>494</v>
       </c>
@@ -7557,10 +7557,10 @@
       </c>
       <c r="H179" s="21"/>
       <c r="I179" s="21" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="180" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="180" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C180" s="20" t="s">
         <v>496</v>
       </c>
@@ -7578,10 +7578,10 @@
       </c>
       <c r="H180" s="21"/>
       <c r="I180" s="21" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="181" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="181" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C181" s="20" t="s">
         <v>498</v>
       </c>
@@ -7599,10 +7599,10 @@
       </c>
       <c r="H181" s="21"/>
       <c r="I181" s="21" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="182" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="182" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C182" s="20" t="s">
         <v>501</v>
       </c>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H182" s="21"/>
       <c r="I182" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -7660,16 +7660,17 @@
     <hyperlink ref="I16" r:id="rId11" xr:uid="{936830EA-AFFD-4B60-9F79-33EF5DE749D8}"/>
     <hyperlink ref="I17" r:id="rId12" xr:uid="{93ABF221-2BA9-4E09-8BB9-45A15825E542}"/>
     <hyperlink ref="I18" r:id="rId13" xr:uid="{2B75DCD1-A438-46EB-9624-7E33B4A4E052}"/>
+    <hyperlink ref="I19" r:id="rId14" xr:uid="{BFFFAD78-43BB-412C-BEAE-573B1B0AFA41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId14"/>
+  <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId15"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7686,30 +7687,30 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -7719,16 +7720,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="10"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -7736,12 +7737,12 @@
       <c r="J2" s="14"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="10"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -7749,7 +7750,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
@@ -7764,7 +7765,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7789,7 +7790,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
@@ -7812,7 +7813,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -7835,7 +7836,7 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -7859,7 +7860,7 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
@@ -7882,7 +7883,7 @@
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
@@ -7905,7 +7906,7 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
@@ -7928,7 +7929,7 @@
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
@@ -7951,7 +7952,7 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
@@ -7974,7 +7975,7 @@
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="C14" s="7" t="s">
         <v>36</v>
@@ -7998,7 +7999,7 @@
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
@@ -8021,7 +8022,7 @@
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
@@ -8044,7 +8045,7 @@
       <c r="J16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
@@ -8067,7 +8068,7 @@
       <c r="J17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
@@ -8090,7 +8091,7 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
@@ -8113,7 +8114,7 @@
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
@@ -8137,7 +8138,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -8160,7 +8161,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="7" t="s">
         <v>57</v>
       </c>
@@ -8183,7 +8184,7 @@
       <c r="J22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="4"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -8194,7 +8195,7 @@
       <c r="J23"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -8205,7 +8206,7 @@
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="4"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -8216,7 +8217,7 @@
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -8228,7 +8229,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -8239,7 +8240,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="4"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -8250,7 +8251,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="4"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -8261,7 +8262,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="4"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -8272,7 +8273,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -8283,7 +8284,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="C32" s="4"/>
       <c r="D32"/>
@@ -8295,7 +8296,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="4"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -8306,7 +8307,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="4"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -8317,7 +8318,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="4"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -8328,7 +8329,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="4"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -8339,7 +8340,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="4"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -8350,7 +8351,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="C38" s="4"/>
       <c r="D38"/>
@@ -8362,7 +8363,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="4"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -8373,7 +8374,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="4"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -8384,7 +8385,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="4"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -8395,7 +8396,7 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="4"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -8406,7 +8407,7 @@
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="4"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -8417,7 +8418,7 @@
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="C44" s="4"/>
       <c r="D44"/>
@@ -8429,7 +8430,7 @@
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="4"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -8440,7 +8441,7 @@
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="4"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -8451,7 +8452,7 @@
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="4"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -8462,7 +8463,7 @@
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="4"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -8473,7 +8474,7 @@
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="4"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -8484,7 +8485,7 @@
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="C50" s="4"/>
       <c r="D50"/>
@@ -8496,7 +8497,7 @@
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="4"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -8507,7 +8508,7 @@
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C52" s="4"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -8518,7 +8519,7 @@
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="4"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -8529,7 +8530,7 @@
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="4"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -8540,7 +8541,7 @@
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C55" s="4"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -8551,7 +8552,7 @@
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="C56" s="4"/>
       <c r="D56"/>
@@ -8563,7 +8564,7 @@
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="4"/>
       <c r="D57"/>
       <c r="E57"/>
@@ -8574,7 +8575,7 @@
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="4"/>
       <c r="D58"/>
       <c r="E58"/>
@@ -8585,7 +8586,7 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" s="4"/>
       <c r="D59"/>
       <c r="E59"/>
@@ -8596,7 +8597,7 @@
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" s="4"/>
       <c r="D60"/>
       <c r="E60"/>
@@ -8607,7 +8608,7 @@
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
@@ -8615,7 +8616,7 @@
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="F62"/>
       <c r="G62"/>
@@ -8624,7 +8625,7 @@
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
@@ -8632,7 +8633,7 @@
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
@@ -8640,7 +8641,7 @@
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
@@ -8648,7 +8649,7 @@
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
@@ -8656,7 +8657,7 @@
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -8664,7 +8665,7 @@
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="F68"/>
       <c r="G68"/>
@@ -8673,7 +8674,7 @@
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
@@ -8681,7 +8682,7 @@
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
@@ -8689,7 +8690,7 @@
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
@@ -8697,7 +8698,7 @@
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
@@ -8705,7 +8706,7 @@
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="F73"/>
       <c r="G73"/>
@@ -8714,7 +8715,7 @@
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
@@ -8722,7 +8723,7 @@
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
@@ -8730,7 +8731,7 @@
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
@@ -8738,7 +8739,7 @@
       <c r="J76"/>
       <c r="K76"/>
     </row>
-    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -8746,7 +8747,7 @@
       <c r="J77"/>
       <c r="K77"/>
     </row>
-    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="F78"/>
       <c r="G78"/>
@@ -8755,7 +8756,7 @@
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
